--- a/biology/Zoologie/La_Fameuse_Invasion_des_ours_en_Sicile/La_Fameuse_Invasion_des_ours_en_Sicile.xlsx
+++ b/biology/Zoologie/La_Fameuse_Invasion_des_ours_en_Sicile/La_Fameuse_Invasion_des_ours_en_Sicile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fameuse Invasion des ours en Sicile (italien : La famosa invasione degli orsi in Sicilia) est un film d'animation franco-italien réalisé par Lorenzo Mattotti, sur un scénario co-écrit avec Jean-Luc Fromental et Thomas Bidegain, d'après le conte La Fameuse Invasion de la Sicile par les ours de Dino Buzzati. Il est sorti en 2019[1]. C'est un dessin animé au rendu en deux dimensions qui reprend de près l'intrigue du conte : pour retrouver l'ourson Tonio, fils du roi Léonce, qui a été enlevé par des chasseurs, les ours décident de quitter leurs montagnes pour envahir la Sicile en affrontant le tyrannique Grand-Duc, mais alternent découvertes merveilleuses et désillusions à mesure qu'ils s'accoutument aux manières des humains. Le long métrage fait partie de la sélection officielle du Festival de Cannes 2019 dans la section Un certain regard[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fameuse Invasion des ours en Sicile (italien : La famosa invasione degli orsi in Sicilia) est un film d'animation franco-italien réalisé par Lorenzo Mattotti, sur un scénario co-écrit avec Jean-Luc Fromental et Thomas Bidegain, d'après le conte La Fameuse Invasion de la Sicile par les ours de Dino Buzzati. Il est sorti en 2019. C'est un dessin animé au rendu en deux dimensions qui reprend de près l'intrigue du conte : pour retrouver l'ourson Tonio, fils du roi Léonce, qui a été enlevé par des chasseurs, les ours décident de quitter leurs montagnes pour envahir la Sicile en affrontant le tyrannique Grand-Duc, mais alternent découvertes merveilleuses et désillusions à mesure qu'ils s'accoutument aux manières des humains. Le long métrage fait partie de la sélection officielle du Festival de Cannes 2019 dans la section Un certain regard.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gedeone, un conteur, et Almerina, sa jeune assistante, en chemin vers Caltabellotta, échappent à une avalanche en se réfugiant dans une grotte dans laquelle habite un très vieil ours qu'ils réveillent accidentellement de l'hibernation. Pour éviter d'être mangés, les deux humains le divertissent en lui racontant une histoire : la fameuse invasion des ours en Sicile.
 Tonio, le fils de Léonce, roi des ours, est enlevé par des humains ; son père décide de mener une expédition à travers la Sicile afin de le retrouver. Le vilain grand-duc de Sicile, qui append que l'armée d'ours est en route vers son royaume, décide d'arrêter l'invasion avec l'aide de De Ambrosis, le magicien de la cour, possédant une baguette magique capable de lancer deux sorts seulement. Les ours sont attaqués par l'armée du grand-duc, et le vieil ours sage Théophile est tué : les ours ripostent en attaquant les soldats de la cour avec des boules de neige géantes.
@@ -549,7 +563,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : La Fameuse Invasion des ours en Sicile
 Titre italien : La famosa invasione degli orsi in Sicilia
@@ -600,8 +616,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Voix originales françaises
-Leïla Bekhti : Almerina
+          <t>Voix originales françaises</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Leïla Bekhti : Almerina
 Thomas Bidegain : Gedeone
 Jean-Claude Carrière : le vieil ours
 Boris Rehlinger : le magicien De Ambrosis  et l'ours Babbon
@@ -610,9 +631,43 @@
 Arthur Dupont : Tonio, prince ours
 Pascal Demolon : le grand duc
 Beppe Chierici : Théophile
-Lorenzo Mattotti : Troll, l'aubergiste
-Voix italiennes
-Linda Caridi : Almerina
+Lorenzo Mattotti : Troll, l'aubergiste</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>La_Fameuse_Invasion_des_ours_en_Sicile</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Fameuse_Invasion_des_ours_en_Sicile</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix italiennes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Linda Caridi : Almerina
 Antonio Albanese : Gedeone
 Andrea Camilleri : le vieil ours Théophile
 Roberto Ciufoli : l'ours Babbon
@@ -624,47 +679,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>La_Fameuse_Invasion_des_ours_en_Sicile</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/La_Fameuse_Invasion_des_ours_en_Sicile</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Conception du film</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Idée de départ
-L'idée du projet remonte à 2008, lorsque la productrice Valérie Schermann contacte le réalisateur Lorenzo Mattotti afin de travailler avec lui : ce dernier s'ouvre à elle de son désir d'adapter le conte de Dino Buzzati La Fameuse invasion de la Sicile par les ours et elle se met en devoir d'obtenir les droits d'adaptation audiovisuelle du livre, ce qui prend plusieurs années[3]. Les droits sont accordés par la veuve de Dino Buzzati, Almerina Buzzati[4].
-Budget
-Le film est co-produit par les studios français Prima Linea Productions et les studios italiens Indigo Film, Rai Cinema et MIBACT. Il constitue son budget grâce au soutien financier de plusieurs institutions et partenaires, dont France 3 Cinéma, Canal+, Pathé, le CNC, les régions Île-de-France et Nouvelle-Aquitaine ainsi que le département de la Charente, la fondation GAN pour le cinéma, MEDIA Europa Creativa, la Procirep et l’Angoa. Le budget final du film s'élève à environ 11 millions d'euros[5].
-Scénario
-Les scénaristes Thomas Bidegain et Jean-Luc Fromental conçoivent un scénario adapté du livre. L'intrigue de ce dernier est parfois répétitive, car Buzzati a conçu le conte à partir de ce qu'il racontait à ses enfants. Pour contourner le problème, le scénario du film ajoute un récit-cadre à l'histoire : le troubadour Gedeone et sa fille Almerina (prénom qui rend hommage à l'épouse de Buzzati) rencontrent un ours dans une grotte et lui racontent la légende, de sorte que les trois personnages ménagent des commentaires, des réactions ou des corrections à l'histoire. Le scénario modernise légèrement le conte en y introduisant le personnage d'Almerina, qui joue un petit rôle dans l'intrigue du conte aux côtés du prince Tonio[3]. 
-Univers graphique
-La Fameuse invasion de la Sicile par les ours bénéficiait d'illustrations conçues par Dino Buzzati lui-même. Pour le film, Lorenzo Mattotti conserve la simplicité et la naïveté de ces illustrations, tout en conservant une grande liberté de détail et en usant abondamment de la couleur[3]. Les dessins de Buzzati servent de guide et Mattotti tient à préserver les nombreuses idées graphiques qui y sont incluses en se donnant les moyens de les porter à l'écran, comme l'emploi de boules de neiges géantes dans une bataille, le chat Marmouset ou encore les fantômes[4]. 
-Dans les premières étapes du projet, le film est envisagé comme un dessin animé en deux dimensions,  et ensuite comme un film en images de synthèse ; mais Mattotti se rend compte que cela implique des structures graphiques « trop formatées » et décide d'en revenir à un dessin animé à rendu plat[4]. Le style d'animation finalement employé adopte un rendu de dessin animé en deux dimensions, même lorsque les animateurs recourent à des images de synthèse. En effet, Mattotti a observé que les images de synthèse trop voyantes vieillissent très vite et préfère donner un aspect intemporel au film[3].
-Le film recourt à des couleurs très vives afin de conférer de la chaleur et de l'énergie à l'univers visuel du film. C'est un parti pris esthétique de Mattotti, qui s'écarte délibérément des schémas de couleurs employés notamment par les films d'animation américains, dont il estime qu'ils emploient des couleurs « terribles » et « acides », qui donnent « une idée de la vie contemporaine pleine de froideur, de cynisme, de désillusion, de peur d’être doux, gentil, poétique »[4].
-Les décors du film s'inspirent de paysages méditerranéens, mais sans chercher à correspondre à une réalité précise, afin que le résultat relève d'un univers de conte intemporel plutôt que de la géographie réelle[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -686,21 +700,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sortie</t>
+          <t>Conception du film</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diffusion du projet et sortie en festival
-Les premières images de l’adaptation sont présentées en juin 2018 lors du Festival international du film d'animation d'Annecy et font fait forte impression[6]. Le long métrage fait partie de la sélection officielle du Festival de Cannes 2019 dans la section Un certain regard[2].
-Accueil critique
-En France, le site Allociné recense une moyenne des critiques presse de 4/5[10].
-Pour Stéphane Dreyfus de La Croix, « cette brillante adaptation d'un roman de Dino Buzzati est un conte moral sur les vices et vertus du pouvoir. [...] Restant fidèle au style graphique du dessinateur italien, tout en courbes et en couleurs vives, le film revêt une esthétique qui lui est propre. Les sublimes décors d'inspiration picturale évoquent les perspectives vertigineuses de Masaccio ou De Chirico, tandis que les formes géométriques des personnages rendent hommage aux dessins de Buzzati lui-même pour son livre. »[11].
-Pour Guillemette Odicino de Télérama, « Adapter le roman pour enfants publié en 1945 par Dino Buzzati semblait impossible. [...] Fable écologique qui confronte la candeur animale à la corruption politique, ce film à tiroirs puise ses charmes à de multiples sources, des légendes méditerranéennes à la Renaissance italienne, en passant par la commedia dell’arte et Paul Grimault. [...] Avec sa profusion de lignes et de couleurs, ce chef-d’œuvre animé impose sa vérité : quand deux logiques s’affrontent, c’est la nature, et non l’homme, qui a le dernier mot. »[12]
-Pour Marius Chapuis de Libération : « Tour de force visuel qui peine à donner autant de souffle à son récit, la Fameuse Invasion des ours en Sicile parvient toutefois à restituer la puissance expressive des couleurs de Mattotti, son travail au crayon gras et au pastel s’accommodant à merveille avec l'outil numérique. »[9].
-Pour Aurélia Vertaldi du Figaro, le film est « un joyau graphique aux couleurs flamboyantes, empreint de poésie »[8].
-Box-office
-En France, le film sort le 9 octobre 2019. Exploité dans 336 salles en première semaine, il réalise environ 57 400 entrées. En deuxième semaine, exploité sur 448 salles, il attire environ 62 350 spectateurs et dépasse les 100 000 entrées. En troisième semaine, étendu sur 519 salles, il fait environ 56 120 entrées, portant son total à un peu plus de 175 800[13].
+          <t>Idée de départ</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'idée du projet remonte à 2008, lorsque la productrice Valérie Schermann contacte le réalisateur Lorenzo Mattotti afin de travailler avec lui : ce dernier s'ouvre à elle de son désir d'adapter le conte de Dino Buzzati La Fameuse invasion de la Sicile par les ours et elle se met en devoir d'obtenir les droits d'adaptation audiovisuelle du livre, ce qui prend plusieurs années. Les droits sont accordés par la veuve de Dino Buzzati, Almerina Buzzati.
 </t>
         </is>
       </c>
@@ -726,16 +737,285 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Conception du film</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Budget</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est co-produit par les studios français Prima Linea Productions et les studios italiens Indigo Film, Rai Cinema et MIBACT. Il constitue son budget grâce au soutien financier de plusieurs institutions et partenaires, dont France 3 Cinéma, Canal+, Pathé, le CNC, les régions Île-de-France et Nouvelle-Aquitaine ainsi que le département de la Charente, la fondation GAN pour le cinéma, MEDIA Europa Creativa, la Procirep et l’Angoa. Le budget final du film s'élève à environ 11 millions d'euros.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Fameuse_Invasion_des_ours_en_Sicile</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Fameuse_Invasion_des_ours_en_Sicile</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Conception du film</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Scénario</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les scénaristes Thomas Bidegain et Jean-Luc Fromental conçoivent un scénario adapté du livre. L'intrigue de ce dernier est parfois répétitive, car Buzzati a conçu le conte à partir de ce qu'il racontait à ses enfants. Pour contourner le problème, le scénario du film ajoute un récit-cadre à l'histoire : le troubadour Gedeone et sa fille Almerina (prénom qui rend hommage à l'épouse de Buzzati) rencontrent un ours dans une grotte et lui racontent la légende, de sorte que les trois personnages ménagent des commentaires, des réactions ou des corrections à l'histoire. Le scénario modernise légèrement le conte en y introduisant le personnage d'Almerina, qui joue un petit rôle dans l'intrigue du conte aux côtés du prince Tonio. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>La_Fameuse_Invasion_des_ours_en_Sicile</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Fameuse_Invasion_des_ours_en_Sicile</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Conception du film</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Univers graphique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fameuse invasion de la Sicile par les ours bénéficiait d'illustrations conçues par Dino Buzzati lui-même. Pour le film, Lorenzo Mattotti conserve la simplicité et la naïveté de ces illustrations, tout en conservant une grande liberté de détail et en usant abondamment de la couleur. Les dessins de Buzzati servent de guide et Mattotti tient à préserver les nombreuses idées graphiques qui y sont incluses en se donnant les moyens de les porter à l'écran, comme l'emploi de boules de neiges géantes dans une bataille, le chat Marmouset ou encore les fantômes. 
+Dans les premières étapes du projet, le film est envisagé comme un dessin animé en deux dimensions,  et ensuite comme un film en images de synthèse ; mais Mattotti se rend compte que cela implique des structures graphiques « trop formatées » et décide d'en revenir à un dessin animé à rendu plat. Le style d'animation finalement employé adopte un rendu de dessin animé en deux dimensions, même lorsque les animateurs recourent à des images de synthèse. En effet, Mattotti a observé que les images de synthèse trop voyantes vieillissent très vite et préfère donner un aspect intemporel au film.
+Le film recourt à des couleurs très vives afin de conférer de la chaleur et de l'énergie à l'univers visuel du film. C'est un parti pris esthétique de Mattotti, qui s'écarte délibérément des schémas de couleurs employés notamment par les films d'animation américains, dont il estime qu'ils emploient des couleurs « terribles » et « acides », qui donnent « une idée de la vie contemporaine pleine de froideur, de cynisme, de désillusion, de peur d’être doux, gentil, poétique ».
+Les décors du film s'inspirent de paysages méditerranéens, mais sans chercher à correspondre à une réalité précise, afin que le résultat relève d'un univers de conte intemporel plutôt que de la géographie réelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>La_Fameuse_Invasion_des_ours_en_Sicile</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Fameuse_Invasion_des_ours_en_Sicile</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Diffusion du projet et sortie en festival</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières images de l’adaptation sont présentées en juin 2018 lors du Festival international du film d'animation d'Annecy et font fait forte impression. Le long métrage fait partie de la sélection officielle du Festival de Cannes 2019 dans la section Un certain regard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>La_Fameuse_Invasion_des_ours_en_Sicile</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Fameuse_Invasion_des_ours_en_Sicile</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le site Allociné recense une moyenne des critiques presse de 4/5.
+Pour Stéphane Dreyfus de La Croix, « cette brillante adaptation d'un roman de Dino Buzzati est un conte moral sur les vices et vertus du pouvoir. [...] Restant fidèle au style graphique du dessinateur italien, tout en courbes et en couleurs vives, le film revêt une esthétique qui lui est propre. Les sublimes décors d'inspiration picturale évoquent les perspectives vertigineuses de Masaccio ou De Chirico, tandis que les formes géométriques des personnages rendent hommage aux dessins de Buzzati lui-même pour son livre. ».
+Pour Guillemette Odicino de Télérama, « Adapter le roman pour enfants publié en 1945 par Dino Buzzati semblait impossible. [...] Fable écologique qui confronte la candeur animale à la corruption politique, ce film à tiroirs puise ses charmes à de multiples sources, des légendes méditerranéennes à la Renaissance italienne, en passant par la commedia dell’arte et Paul Grimault. [...] Avec sa profusion de lignes et de couleurs, ce chef-d’œuvre animé impose sa vérité : quand deux logiques s’affrontent, c’est la nature, et non l’homme, qui a le dernier mot. »
+Pour Marius Chapuis de Libération : « Tour de force visuel qui peine à donner autant de souffle à son récit, la Fameuse Invasion des ours en Sicile parvient toutefois à restituer la puissance expressive des couleurs de Mattotti, son travail au crayon gras et au pastel s’accommodant à merveille avec l'outil numérique. ».
+Pour Aurélia Vertaldi du Figaro, le film est « un joyau graphique aux couleurs flamboyantes, empreint de poésie ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>La_Fameuse_Invasion_des_ours_en_Sicile</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Fameuse_Invasion_des_ours_en_Sicile</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le film sort le 9 octobre 2019. Exploité dans 336 salles en première semaine, il réalise environ 57 400 entrées. En deuxième semaine, exploité sur 448 salles, il attire environ 62 350 spectateurs et dépasse les 100 000 entrées. En troisième semaine, étendu sur 519 salles, il fait environ 56 120 entrées, portant son total à un peu plus de 175 800.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>La_Fameuse_Invasion_des_ours_en_Sicile</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Fameuse_Invasion_des_ours_en_Sicile</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Récompenses
-Le film obtient le prix du Meilleur réalisateur lors de la 14e Fête du cinéma de Rome en octobre 2019[14].
-La Fameuse invasion des ours en Sicile fait partie des finalistes pour le Prix de la sélection Un certain regard au Festival de Cannes en 2019. Il fait aussi partie des finalistes pour la Cigogne d'or du meilleur film d'animation lors du Festival européen du film fantastique de Strasbourg en 2019[15].
-Nomination
-César 2020 : Meilleur long métrage d'animation</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film obtient le prix du Meilleur réalisateur lors de la 14e Fête du cinéma de Rome en octobre 2019.
+La Fameuse invasion des ours en Sicile fait partie des finalistes pour le Prix de la sélection Un certain regard au Festival de Cannes en 2019. Il fait aussi partie des finalistes pour la Cigogne d'or du meilleur film d'animation lors du Festival européen du film fantastique de Strasbourg en 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>La_Fameuse_Invasion_des_ours_en_Sicile</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Fameuse_Invasion_des_ours_en_Sicile</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>César 2020 : Meilleur long métrage d'animation</t>
         </is>
       </c>
     </row>
